--- a/Dosificador/Documentos/EstructuraArchivoCanonico.xlsx
+++ b/Dosificador/Documentos/EstructuraArchivoCanonico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JuanjoFolder\UNIAJC\programacion3\ProyectoFinal\Dosificador\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C4BD53D-809F-4667-B68C-687D85BCD6C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{420A1733-DC32-49A1-B579-89C3910D76DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27525" yWindow="-120" windowWidth="27645" windowHeight="16440" xr2:uid="{7095F2D1-99DC-4CBA-BFFC-5138F6E601D5}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="80">
   <si>
     <t>tipo_solicitud,</t>
   </si>
@@ -126,9 +127,6 @@
   </si>
   <si>
     <t xml:space="preserve">                "programa_academico",</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                "num_documento",</t>
   </si>
   <si>
     <t xml:space="preserve">                "celular",</t>
@@ -331,7 +329,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,12 +363,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,61 +463,60 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -849,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF06362C-4FB8-4B19-B92F-1C3ACF830699}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,33 +859,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="I1" s="29" t="s">
-        <v>80</v>
+      <c r="H1" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -913,10 +904,10 @@
         <v>0</v>
       </c>
       <c r="G2" s="4"/>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="29"/>
+      <c r="I2" s="36"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -938,10 +929,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="29"/>
+      <c r="H3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="36"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -951,21 +942,21 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" s="29"/>
+      <c r="F4" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="36"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -975,31 +966,31 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="17" t="s">
+      <c r="E5" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="I5" s="29"/>
+      <c r="H5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="36"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>41</v>
+      <c r="C6" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>3</v>
@@ -1008,25 +999,25 @@
         <v>2</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" s="29"/>
+        <v>55</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="13" t="s">
+      <c r="A7" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>41</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>3</v>
@@ -1034,412 +1025,413 @@
       <c r="F7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="36"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="29"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="14" t="s">
+      <c r="I8" s="36"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="36"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="29"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="E10" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="14" t="s">
+      <c r="F10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="I9" s="29"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="I10" s="36"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="D11" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="36"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="36"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="I10" s="29"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" s="29"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" s="29"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="21" t="str">
+      <c r="E13" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="20" t="str">
         <f>TRIM(C10)</f>
         <v>"homologacion</v>
       </c>
-      <c r="I13" s="29"/>
+      <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" s="27" t="str">
+      <c r="B14" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="26" t="str">
         <f>TRIM(F8)</f>
         <v>" semestre",</v>
       </c>
-      <c r="I14" s="29"/>
+      <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="B16" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="I17" s="29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="16" t="s">
+      <c r="I18" s="36"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="I18" s="29"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="16" t="s">
+      <c r="I19" s="36"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="I19" s="29"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="16" t="s">
+      <c r="I20" s="36"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="I20" s="29"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="16" t="s">
+      <c r="I21" s="36"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="I21" s="29"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="I22" s="29"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
+      <c r="I22" s="36"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="18" t="str">
+      <c r="H23" s="17" t="str">
         <f>TRIM(C7)</f>
         <v>"carrera_aspira",</v>
       </c>
-      <c r="I23" s="29" t="s">
+      <c r="I23" s="36" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="18" t="str">
+      <c r="H24" s="17" t="str">
         <f>TRIM(C8)</f>
         <v>"puntaje_icfes",</v>
       </c>
-      <c r="I24" s="29"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="H25" s="18" t="str">
+      <c r="I24" s="36"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" s="17" t="str">
         <f>TRIM(C9)</f>
         <v>"colegio_proviene",</v>
       </c>
-      <c r="I25" s="29"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
+      <c r="I25" s="36"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="H26" s="19" t="str">
+      <c r="H26" s="18" t="str">
         <f>TRIM(D4)</f>
         <v>"tipo_ceremonia",</v>
       </c>
-      <c r="I26" s="29" t="s">
+      <c r="I26" s="36" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H27" s="19" t="str">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H27" s="18" t="str">
         <f>TRIM(D11)</f>
         <v>"estadosolgra",</v>
       </c>
-      <c r="I27" s="29"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H28" s="24" t="str">
+      <c r="I27" s="36"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H28" s="23" t="str">
         <f>TRIM(E5)</f>
         <v>"tipo_identificacion",</v>
       </c>
-      <c r="I28" s="29" t="s">
+      <c r="I28" s="36" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H29" s="24" t="str">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H29" s="23" t="str">
         <f>TRIM(E8)</f>
         <v>"edad",</v>
       </c>
-      <c r="I29" s="29"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H30" s="24" t="str">
+      <c r="I29" s="36"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H30" s="23" t="str">
         <f>TRIM(E11)</f>
         <v>"semestre_Inicio",</v>
       </c>
-      <c r="I30" s="29"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H31" s="26" t="str">
+      <c r="I30" s="36"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H31" s="25" t="str">
         <f>TRIM(F4)</f>
         <v>" id_matricula",</v>
       </c>
-      <c r="I31" s="30" t="s">
+      <c r="I31" s="28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H32" s="28" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H32" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I32" s="29" t="s">
+      <c r="I32" s="36" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="33" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H33" s="28" t="s">
+      <c r="H33" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I33" s="29"/>
+      <c r="I33" s="36"/>
     </row>
     <row r="34" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H34" s="28" t="s">
+      <c r="H34" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="I34" s="29"/>
+      <c r="I34" s="36"/>
     </row>
     <row r="35" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H35" s="28" t="s">
+      <c r="H35" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="I35" s="29"/>
+      <c r="I35" s="36"/>
     </row>
     <row r="36" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H36" s="28" t="s">
+      <c r="H36" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I36" s="29"/>
+      <c r="I36" s="36"/>
     </row>
     <row r="37" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H37" s="28" t="s">
+      <c r="H37" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="I37" s="29"/>
+      <c r="I37" s="36"/>
     </row>
     <row r="38" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H38" s="28" t="s">
+      <c r="H38" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I38" s="29"/>
+      <c r="I38" s="36"/>
     </row>
     <row r="39" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H39" s="28" t="s">
+      <c r="H39" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="I39" s="29"/>
+      <c r="I39" s="36"/>
     </row>
     <row r="40" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H40" s="28" t="s">
+      <c r="H40" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="I40" s="29"/>
+      <c r="I40" s="36"/>
     </row>
     <row r="41" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H41" s="28" t="s">
+      <c r="H41" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="I41" s="29"/>
+      <c r="I41" s="36"/>
     </row>
     <row r="42" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H42" s="28" t="s">
+      <c r="H42" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I42" s="29"/>
+      <c r="I42" s="36"/>
     </row>
     <row r="43" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H43" s="28" t="s">
+      <c r="H43" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="I43" s="29"/>
+      <c r="I43" s="36"/>
     </row>
     <row r="44" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H44" s="28" t="s">
+      <c r="H44" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I44" s="29"/>
+      <c r="I44" s="36"/>
     </row>
     <row r="45" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H45" s="28" t="s">
+      <c r="H45" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="I45" s="29"/>
+      <c r="I45" s="36"/>
     </row>
     <row r="46" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H46" s="28" t="s">
+      <c r="H46" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="I46" s="29"/>
+      <c r="I46" s="36"/>
     </row>
     <row r="47" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H47" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="I47" s="29"/>
+      <c r="H47" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="I47" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1451,5 +1443,6 @@
     <mergeCell ref="I28:I30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>